--- a/ghost_algorithm - calculator.xlsx
+++ b/ghost_algorithm - calculator.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Pycharm\Application04_TicTic-TacTac-ToeToe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D195D3F-8F32-45FC-A169-439B765A5DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B109F5B-AE82-4D77-A46C-364737854D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56A99F1F-716A-4452-B361-6B01D0F40BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="4x4" sheetId="3" r:id="rId1"/>
     <sheet name="5x5" sheetId="2" r:id="rId2"/>
+    <sheet name="6x6" sheetId="5" r:id="rId3"/>
+    <sheet name="Method 2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
   <si>
     <t>grid_height</t>
   </si>
@@ -58,6 +60,75 @@
   </si>
   <si>
     <t>Method 1 FLOAT</t>
+  </si>
+  <si>
+    <t>(-1, -1)</t>
+  </si>
+  <si>
+    <t>Grid</t>
+  </si>
+  <si>
+    <t>10 x 10</t>
+  </si>
+  <si>
+    <t>Verdict</t>
+  </si>
+  <si>
+    <t>Very slow</t>
+  </si>
+  <si>
+    <t>Mildly slow</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>move counter</t>
+  </si>
+  <si>
+    <t>best move</t>
+  </si>
+  <si>
+    <t>max depth</t>
+  </si>
+  <si>
+    <t>4 x 4 x 4</t>
+  </si>
+  <si>
+    <t>4 x 4</t>
+  </si>
+  <si>
+    <t>3 x 3 x 3</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>(0, 1)</t>
+  </si>
+  <si>
+    <t>6 x 6</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Dead</t>
+  </si>
+  <si>
+    <t>6 x 6 x 6</t>
+  </si>
+  <si>
+    <t>8 x 8</t>
+  </si>
+  <si>
+    <t>Method 3 FLOAT</t>
+  </si>
+  <si>
+    <t>Method 3 INT</t>
+  </si>
+  <si>
+    <t>moves left</t>
   </si>
 </sst>
 </file>
@@ -93,16 +164,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="48">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -173,22 +343,52 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BF1C146-60CA-49D5-8EBC-17B041838980}" name="Table13" displayName="Table13" ref="A1:G18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G18" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{16435583-54A7-4013-8F3C-8A651A36F71A}" name="grid_height" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C9AEFBFB-D7AC-446E-B9DC-0AD163C27B64}" name="grid_width" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{DEBB5C06-4489-4DC4-ADB2-F362A6701971}" name="move_counter" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{576AA152-277A-43DF-AD0C-11E9D3050CEC}" name="Method 1 FLOAT" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BF1C146-60CA-49D5-8EBC-17B041838980}" name="Table13" displayName="Table13" ref="A1:I18" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A1:I18" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{16435583-54A7-4013-8F3C-8A651A36F71A}" name="grid_height" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{C9AEFBFB-D7AC-446E-B9DC-0AD163C27B64}" name="grid_width" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{DEBB5C06-4489-4DC4-ADB2-F362A6701971}" name="move_counter" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{576AA152-277A-43DF-AD0C-11E9D3050CEC}" name="Method 1 FLOAT" dataDxfId="42">
       <calculatedColumnFormula>(A2 * B2 - C2) / -2 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{65168083-ACAF-472E-A566-6BF361A4B4E0}" name="Method 1 INT" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{65168083-ACAF-472E-A566-6BF361A4B4E0}" name="Method 1 INT" dataDxfId="41">
       <calculatedColumnFormula>INT((A2 * B2 - C2) / -2 + 10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C23C6F44-3806-4B99-8699-97AEB38514FF}" name="Method 2 FLOAT" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{C23C6F44-3806-4B99-8699-97AEB38514FF}" name="Method 2 FLOAT" dataDxfId="40">
       <calculatedColumnFormula>C2 / (A2 * B2) * 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E0B73969-BBA0-4091-9507-3CDA7B45C085}" name="Method 2 INT" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{E0B73969-BBA0-4091-9507-3CDA7B45C085}" name="Method 2 INT" dataDxfId="39">
+      <calculatedColumnFormula>INT(C2 / (A2 * B2) * 10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{32004EBE-5B4F-4133-A93B-FE6CD1B3E701}" name="Method 3 FLOAT" dataDxfId="2">
+      <calculatedColumnFormula>C2 / (A2 * B2 + 10) * 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{9AC0BC91-0AEE-4623-90D8-36B42AE6F49D}" name="Method 3 INT" dataDxfId="1">
+      <calculatedColumnFormula>INT(C2 / (A2 * B2 + 10) * 10)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <autoFilter ref="A1:G27" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{CC2BA8DB-EC03-4D8C-9E0F-814EDCC39628}" name="grid_height" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{6289AA9C-E8BD-499C-8999-6E1A251D9E93}" name="grid_width" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{D53638EA-1DC1-4B7C-AA29-372CD4212481}" name="move_counter" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{680BDE54-40C3-497D-AB86-BADCDCDA7E72}" name="Method 1 FLOAT" dataDxfId="33">
+      <calculatedColumnFormula>(A2 * B2 - C2) / -2 + 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{ECB052BE-BF86-48DD-B698-9570EBF7172D}" name="Method 1 INT" dataDxfId="32">
+      <calculatedColumnFormula>INT((A2 * B2 - C2) / -2 + 10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{8CB9D2D0-59C1-45D2-931B-A44048E5FD87}" name="Method 2 FLOAT" dataDxfId="31">
+      <calculatedColumnFormula>C2 / (A2 * B2) * 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C2382964-161D-49BA-88AE-7490E8C2DE59}" name="Method 2 INT" dataDxfId="30">
       <calculatedColumnFormula>INT(C2 / (A2 * B2) * 10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -196,27 +396,66 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}" name="Table1" displayName="Table1" ref="A1:G27" totalsRowShown="0" headerRowDxfId="10" dataDxfId="11">
-  <autoFilter ref="A1:G27" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{CC2BA8DB-EC03-4D8C-9E0F-814EDCC39628}" name="grid_height" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{6289AA9C-E8BD-499C-8999-6E1A251D9E93}" name="grid_width" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{D53638EA-1DC1-4B7C-AA29-372CD4212481}" name="move_counter" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{680BDE54-40C3-497D-AB86-BADCDCDA7E72}" name="Method 1 FLOAT" dataDxfId="14">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E899708F-5D75-427C-8AA1-A414E9A7F0F4}" name="Table16" displayName="Table16" ref="A1:I38" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:I38" xr:uid="{00085413-7729-4951-BE03-C023DE7BF890}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B0237D4D-998D-4CC9-B431-D6CEDFA0326E}" name="grid_height" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{CDF0D855-5B42-4DAA-977C-81E5288E07BE}" name="grid_width" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{6F95DEFB-7B81-4CCD-BFAA-4448C1C07CB4}" name="move_counter" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{01D09F84-6094-4B34-B528-220E27C96D8F}" name="Method 1 FLOAT" dataDxfId="8">
       <calculatedColumnFormula>(A2 * B2 - C2) / -2 + 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECB052BE-BF86-48DD-B698-9570EBF7172D}" name="Method 1 INT" dataDxfId="13">
+    <tableColumn id="5" xr3:uid="{B6B43412-EFCD-4195-8300-A97BDB23D6C8}" name="Method 1 INT" dataDxfId="7">
       <calculatedColumnFormula>INT((A2 * B2 - C2) / -2 + 10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{8CB9D2D0-59C1-45D2-931B-A44048E5FD87}" name="Method 2 FLOAT" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{70BFCF89-D3DB-4046-AA66-B0480EAB84FE}" name="Method 2 FLOAT" dataDxfId="6">
       <calculatedColumnFormula>C2 / (A2 * B2) * 10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{C2382964-161D-49BA-88AE-7490E8C2DE59}" name="Method 2 INT" dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{C971D8B2-1348-4312-8D5E-DBDC87DBD90D}" name="Method 2 INT" dataDxfId="5">
       <calculatedColumnFormula>INT(C2 / (A2 * B2) * 10)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{F38B5ED8-F82D-4B80-8853-FAFD4A7FF5AA}" name="Method 3 FLOAT" dataDxfId="4">
+      <calculatedColumnFormula>C2 / (A2 * B2 + 10) * 10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6FE69AF4-1641-488D-817E-32D15ED78E57}" name="Method 3 INT" dataDxfId="3">
+      <calculatedColumnFormula>INT(C2 / (A2 * B2 + 10) * 10)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D6D9D5B3-E9DD-4E4B-893A-38976E8C7EC4}" name="Table3" displayName="Table3" ref="A1:G7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="24">
+  <autoFilter ref="A1:G7" xr:uid="{D6D9D5B3-E9DD-4E4B-893A-38976E8C7EC4}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{ABE73522-7A3C-42E1-B56E-0735342ABEE1}" name="Grid" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{4C53D12E-474C-4521-8A70-C81137ED200B}" name="Sequence" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{7DD3FEA1-BE9B-4A63-AC8F-AC72209B6B98}" name="move counter" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{2DD2308B-C132-40AD-BEFE-D7B99B5E5822}" name="max depth" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{A742E6EF-92CF-41CE-96AE-ED0ADFEFD12D}" name="best move" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{B9674749-7CBF-4AD0-B858-BCDC387FEF1C}" name="Verdict" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{2C8C2194-7228-4340-B4A8-644CE8C72F6C}" name="moves left" dataDxfId="0">
+      <calculatedColumnFormula>100 - C2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8FB78AF3-96AF-4BDF-8B93-9229AD8CD03E}" name="Table35" displayName="Table35" ref="A14:F16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A14:F16" xr:uid="{8FB78AF3-96AF-4BDF-8B93-9229AD8CD03E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{847B3F7C-3CA2-41EB-90B6-9EAD4DBC67ED}" name="Grid" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{0AAB8EF2-94DE-4AD6-B0D3-1D404630A157}" name="Sequence" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{8250F28F-3854-4F27-9FE2-6480C6CA0B5A}" name="move counter" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B0C58E56-1A06-47DE-B752-A6D5031DB4C3}" name="max depth" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{6514551B-1BE8-444D-85FA-FF6C6B84A044}" name="best move" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{6600FA6B-4C12-45EE-88D6-FCA68D97BF7F}" name="Verdict" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -537,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E184C8-7C46-48F3-A0DF-035DC0B708FA}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,7 +786,7 @@
     <col min="2" max="16384" width="24.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,8 +808,14 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -596,8 +841,16 @@
         <f t="shared" ref="G2:G18" si="0">INT(C2 / (A2 * B2) * 10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H18" si="1">C2 / (A2 * B2 + 10) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I18" si="2">INT(C2 / (A2 * B2 + 10) * 10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -616,15 +869,23 @@
         <v>2</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F18" si="1">C3 / (A3 * B3) * 10</f>
+        <f t="shared" ref="F3:F18" si="3">C3 / (A3 * B3) * 10</f>
         <v>0.625</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38461538461538464</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -635,23 +896,31 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D18" si="2">(A4 * B4 - C4) / -2 + 10</f>
+        <f t="shared" ref="D4:D18" si="4">(A4 * B4 - C4) / -2 + 10</f>
         <v>3</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E18" si="3">INT((A4 * B4 - C4) / -2 + 10)</f>
+        <f t="shared" ref="E4:E18" si="5">INT((A4 * B4 - C4) / -2 + 10)</f>
         <v>3</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.25</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -662,23 +931,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>1.153846153846154</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -689,23 +966,31 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -716,23 +1001,31 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.125</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9230769230769231</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -743,23 +1036,31 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.75</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3076923076923079</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -770,23 +1071,31 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.375</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6923076923076921</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -797,23 +1106,31 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0769230769230771</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
@@ -824,23 +1141,31 @@
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.5</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.625</v>
       </c>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4615384615384617</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -851,23 +1176,31 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.25</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -878,23 +1211,31 @@
         <v>11</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.5</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.875</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2307692307692308</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -905,23 +1246,31 @@
         <v>12</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>4.6153846153846159</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -932,23 +1281,31 @@
         <v>13</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.5</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.125</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -959,23 +1316,31 @@
         <v>14</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.3846153846153841</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -986,23 +1351,31 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.375</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>5.7692307692307683</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1013,20 +1386,28 @@
         <v>16</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>6.1538461538461542</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1780,4 +2161,1595 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF0D9E2-1784-49B1-9348-1F4D01D44D7F}">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="24.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(A2 * B2 - C2) / -2 + 10</f>
+        <v>-8</v>
+      </c>
+      <c r="E2" s="1">
+        <f>INT((A2 * B2 - C2) / -2 + 10)</f>
+        <v>-8</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2 / (A2 * B2) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G27" si="0">INT(C2 / (A2 * B2) * 10)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <f t="shared" ref="H2:H38" si="1">C2 / (A2 * B2 + 10) * 10</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <f t="shared" ref="I2:I38" si="2">INT(C2 / (A2 * B2 + 10) * 10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f>(A3 * B3 - C3) / -2 + 10</f>
+        <v>-7.5</v>
+      </c>
+      <c r="E3" s="1">
+        <f>INT((A3 * B3 - C3) / -2 + 10)</f>
+        <v>-8</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F27" si="3">C3 / (A3 * B3) * 10</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" si="1"/>
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D27" si="4">(A4 * B4 - C4) / -2 + 10</f>
+        <v>-7</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E27" si="5">INT((A4 * B4 - C4) / -2 + 10)</f>
+        <v>-7</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="4"/>
+        <v>-6.5</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="4"/>
+        <v>-5.5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>-6</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3043478260869565</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.5</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5217391304347827</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7391304347826086</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.5</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9565217391304348</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1739130434782608</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>11</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>3.0555555555555558</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3913043478260869</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6086956521739131</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.5</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>3.6111111111111112</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8260869565217388</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0434782608695654</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2608695652173916</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4782608695652173</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>4.7222222222222223</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="1"/>
+        <v>3.695652173913043</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9130434782608696</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>5.2777777777777777</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1304347826086953</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8333333333333339</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5652173913043477</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1111111111111116</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="1"/>
+        <v>4.7826086956521738</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>6</v>
+      </c>
+      <c r="C25" s="1">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>6.3888888888888884</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>24</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2173913043478262</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>6</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="1"/>
+        <v>5.4347826086956523</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" ref="D28:D36" si="6">(A28 * B28 - C28) / -2 + 10</f>
+        <v>5</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" ref="E28:E36" si="7">INT((A28 * B28 - C28) / -2 + 10)</f>
+        <v>5</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" ref="F28:F36" si="8">C28 / (A28 * B28) * 10</f>
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G36" si="9">INT(C28 / (A28 * B28) * 10)</f>
+        <v>7</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="1"/>
+        <v>5.6521739130434776</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" s="1">
+        <v>6</v>
+      </c>
+      <c r="C29" s="1">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="6"/>
+        <v>5.5</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>5.8695652173913047</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="8"/>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="1"/>
+        <v>6.0869565217391308</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" s="1">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1">
+        <v>29</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="6"/>
+        <v>6.5</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="8"/>
+        <v>8.0555555555555554</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="1"/>
+        <v>6.304347826086957</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5217391304347831</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>6</v>
+      </c>
+      <c r="C33" s="1">
+        <v>31</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="8"/>
+        <v>8.6111111111111107</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="1"/>
+        <v>6.7391304347826084</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="8"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9565217391304346</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>6</v>
+      </c>
+      <c r="C35" s="1">
+        <v>33</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="8"/>
+        <v>9.1666666666666661</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="1"/>
+        <v>7.1739130434782608</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <v>6</v>
+      </c>
+      <c r="C36" s="1">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="8"/>
+        <v>9.4444444444444446</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="1"/>
+        <v>7.391304347826086</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ref="D37:D38" si="10">(A37 * B37 - C37) / -2 + 10</f>
+        <v>9.5</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ref="E37:E38" si="11">INT((A37 * B37 - C37) / -2 + 10)</f>
+        <v>9</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ref="F37:F38" si="12">C37 / (A37 * B37) * 10</f>
+        <v>9.7222222222222214</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" ref="G37:G38" si="13">INT(C37 / (A37 * B37) * 10)</f>
+        <v>9</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="1"/>
+        <v>7.608695652173914</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <v>6</v>
+      </c>
+      <c r="C38" s="1">
+        <v>36</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="1"/>
+        <v>7.8260869565217392</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF32B14-DA6E-4F9A-95FF-6E6356383E11}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="20.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1">
+        <f t="shared" ref="G2:G7" si="0">100 - C2</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1">
+        <f>36 - C4</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" ref="G5:G7" si="1">36 - C5</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>